--- a/biology/Botanique/Senna_didymobotrya/Senna_didymobotrya.xlsx
+++ b/biology/Botanique/Senna_didymobotrya/Senna_didymobotrya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senna didymobotrya est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae. Il est appelé communément séné, arbre candélabre (en raison de la forme de ses inflorescences) ou Cassia popcorn en raison de ses boutons en forme de popcorn en éclosion. 
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est originaire d'Afrique, où il peut être trouvé à travers le continent dans plusieurs types d'habitats.
 Il est présent dans de nombreuses autres parties du monde pour utilisation en tant que plante ornementale, culture de couverture ou comme engrais vert. Dans certains endroits (Indonésie, Australie, Mexique, Californie, Floride et Hawaii), il est maintenant naturalisé dans la nature.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Senna didymobotrya est un arbuste à croissance rapide (3 m en 2 ans) pouvant mesurer jusqu'à 9 mètres dans son aire d'origine (Afrique tropicale).
 Les feuilles vert clair mesurent jusqu'à 50 cm de long et sont constitués de plusieurs paires de folioles ovales allongées, chacune pouvant aller jusqu'à 6,5 cm de long. La plante a une odeur forte de cacahuète quand on froisse ses feuilles.
